--- a/PythonResources/Data/Consumption/Sympheny/base_1691_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1691_hea.xlsx
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.5417769834901361</v>
+        <v>0.541776983490136</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4006486248227653</v>
+        <v>0.4006486248227652</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>21.17332748754302</v>
+        <v>21.17332748754301</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>47.38782852530757</v>
+        <v>47.38782852530756</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -623,7 +623,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>36.83785727557646</v>
+        <v>36.83785727557645</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>26.06304192498437</v>
+        <v>26.06304192498436</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>12.14823415907076</v>
+        <v>12.14823415907075</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>37.73963686153742</v>
+        <v>37.73963686153741</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6.413009775091424</v>
+        <v>6.413009775091423</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6.060797000828219</v>
+        <v>6.060797000828218</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>33.35763869147299</v>
+        <v>33.35763869147298</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>37.13356595358576</v>
+        <v>37.13356595358575</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>17.72728098654746</v>
+        <v>17.72728098654745</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>52.63614468565494</v>
+        <v>52.63614468565493</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>41.64041238611993</v>
+        <v>41.64041238611992</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>32.28792940035908</v>
+        <v>32.28792940035907</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>32.12967103948195</v>
+        <v>32.12967103948194</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>56.99528331470379</v>
+        <v>56.99528331470378</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>65.12829770859479</v>
+        <v>65.12829770859477</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>36.89412691499944</v>
+        <v>36.89412691499943</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>31.49605145389612</v>
+        <v>31.49605145389611</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>58.91841547039954</v>
+        <v>58.91841547039953</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>46.73047018559017</v>
+        <v>46.73047018559016</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>12.20857748593113</v>
+        <v>12.20857748593112</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>7.131473426369712</v>
+        <v>7.131473426369711</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>38.54997828343604</v>
+        <v>38.54997828343603</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>37.03919707913681</v>
+        <v>37.0391970791368</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>14.24580219697774</v>
+        <v>14.24580219697773</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>7.311975879081235</v>
+        <v>7.311975879081234</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>0.4795433484303995</v>
+        <v>0.4795433484303994</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>20.08213608929524</v>
+        <v>20.08213608929523</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>61.93968480795935</v>
+        <v>61.93968480795934</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>18.36406573935083</v>
+        <v>18.36406573935082</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>21.76937536597246</v>
+        <v>21.76937536597245</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>28.80088226105479</v>
+        <v>28.80088226105478</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>44.41198519874027</v>
+        <v>44.41198519874026</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>30.70505272054915</v>
+        <v>30.70505272054914</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>66.76685788575037</v>
+        <v>66.76685788575035</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>75.39252469563108</v>
+        <v>75.39252469563107</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>52.78385248914026</v>
+        <v>52.78385248914025</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>94.45503733431964</v>
+        <v>94.4550373343196</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>91.8865627514916</v>
+        <v>91.88656275149158</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>65.25812817872176</v>
+        <v>65.25812817872175</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>87.32901502926902</v>
+        <v>87.329015029269</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>88.95174937033688</v>
+        <v>88.95174937033687</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>36.21625360257575</v>
+        <v>36.21625360257574</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>73.90548224546342</v>
+        <v>73.9054822454634</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>40.00712748766025</v>
+        <v>40.00712748766024</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>44.79942511185057</v>
+        <v>44.79942511185056</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>75.86935127553309</v>
+        <v>75.86935127553308</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>107.2103681499774</v>
+        <v>107.2103681499773</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>81.29849226673451</v>
+        <v>81.2984922667345</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>75.01299770056464</v>
+        <v>75.01299770056463</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>89.4611068355303</v>
+        <v>89.46110683553029</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>96.8116215561955</v>
+        <v>96.81162155619548</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>63.93960157578437</v>
+        <v>63.93960157578436</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>62.00621193373547</v>
+        <v>62.00621193373546</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>88.78880187284118</v>
+        <v>88.78880187284116</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>67.54320306716427</v>
+        <v>67.54320306716426</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>52.38908580006343</v>
+        <v>52.38908580006342</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>32.38200520376937</v>
+        <v>32.38200520376936</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>52.11887430241767</v>
+        <v>52.11887430241766</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>80.0195302540164</v>
+        <v>80.01953025401639</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>70.87600691882109</v>
+        <v>70.87600691882108</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>97.52173268287194</v>
+        <v>97.52173268287191</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>110.1551459464466</v>
+        <v>110.1551459464465</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>32.57044988162861</v>
+        <v>32.5704498816286</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>56.91351649491728</v>
+        <v>56.91351649491727</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>94.65110185918408</v>
+        <v>94.65110185918404</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>43.31677872726282</v>
+        <v>43.31677872726281</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>69.11289155023444</v>
+        <v>69.11289155023442</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>75.61437947189772</v>
+        <v>75.61437947189771</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>69.41622007524893</v>
+        <v>69.41622007524892</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>37.6124440307584</v>
+        <v>37.61244403075839</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>63.48915138936188</v>
+        <v>63.48915138936187</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>75.91038122094568</v>
+        <v>75.91038122094567</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>81.71113628916969</v>
+        <v>81.71113628916967</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>50.42726826726438</v>
+        <v>50.42726826726437</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>35.82383148180821</v>
+        <v>35.8238314818082</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>36.22914872827685</v>
+        <v>36.22914872827684</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>33.4341302325636</v>
+        <v>33.43413023256359</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>40.65159070167655</v>
+        <v>40.65159070167654</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>75.58184858660631</v>
+        <v>75.5818485866063</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>75.21697514347294</v>
+        <v>75.21697514347292</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>91.34145061958149</v>
+        <v>91.34145061958148</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>62.94403925745178</v>
+        <v>62.94403925745177</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>95.3028918491669</v>
+        <v>95.30289184916688</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>73.70883157852165</v>
+        <v>73.70883157852164</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>75.81835691480602</v>
+        <v>75.818356914806</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>97.16535829985976</v>
+        <v>97.16535829985972</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>64.2646173576598</v>
+        <v>64.26461735765979</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>829</v>
       </c>
       <c r="B829">
-        <v>65.19980704202816</v>
+        <v>65.19980704202814</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>96.81894833216204</v>
+        <v>96.81894833216202</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>57.70099837580031</v>
+        <v>57.7009983758003</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>55.27554245983902</v>
+        <v>55.27554245983901</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>61.84033372585315</v>
+        <v>61.84033372585314</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>63.71833294159505</v>
+        <v>63.71833294159504</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>92.32235938598102</v>
+        <v>92.322359385981</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>105.6333528909407</v>
+        <v>105.6333528909406</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>64.69777635280127</v>
+        <v>64.69777635280126</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>60.49806836878419</v>
+        <v>60.49806836878418</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>64.21626063628068</v>
+        <v>64.21626063628067</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>43.38008207161367</v>
+        <v>43.38008207161366</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>43.30915888025763</v>
+        <v>43.30915888025762</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>943</v>
       </c>
       <c r="B943">
-        <v>52.36095098035194</v>
+        <v>52.36095098035193</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>36.63681054305478</v>
+        <v>36.63681054305477</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>7.824908810946321</v>
+        <v>7.82490881094632</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>6.113520480683396</v>
+        <v>6.113520480683395</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>19.13112056883917</v>
+        <v>19.13112056883916</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>9.342606491757964</v>
+        <v>9.342606491757962</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>31.56756078732949</v>
+        <v>31.56756078732948</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>56.62835837429979</v>
+        <v>56.62835837429978</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>43.29890139390448</v>
+        <v>43.29890139390447</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>33.05987851619306</v>
+        <v>33.05987851619305</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>49.0844167681181</v>
+        <v>49.08441676811809</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>73.39026335949677</v>
+        <v>73.39026335949676</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>28.49292321362945</v>
+        <v>28.49292321362944</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>39.02885636060868</v>
+        <v>39.02885636060867</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>52.38087981098091</v>
+        <v>52.3808798109809</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>59.02069726289235</v>
+        <v>59.02069726289234</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>56.66381996997781</v>
+        <v>56.6638199699778</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>3.285238422082083</v>
+        <v>3.285238422082082</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>40.37932770676016</v>
+        <v>40.37932770676015</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>44.50400950487993</v>
+        <v>44.50400950487992</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>54.79637131162772</v>
+        <v>54.79637131162771</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>17.02520000633034</v>
+        <v>17.02520000633033</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>46.86557593441305</v>
+        <v>46.86557593441304</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>46.55492063343203</v>
+        <v>46.55492063343202</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>52.86034403023087</v>
+        <v>52.86034403023086</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>55.77728007802724</v>
+        <v>55.77728007802723</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>46.70497300522664</v>
+        <v>46.70497300522663</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>46.71523049157978</v>
+        <v>46.71523049157977</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>71.91787446126217</v>
+        <v>71.91787446126216</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>35.50819397316994</v>
+        <v>35.50819397316993</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9855,7 +9855,7 @@
         <v>1189</v>
       </c>
       <c r="B1189">
-        <v>16.19841729916282</v>
+        <v>16.19841729916281</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>29.53306163694243</v>
+        <v>29.53306163694242</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>30.54825971486533</v>
+        <v>30.54825971486532</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>2.318561185319955</v>
+        <v>2.318561185319954</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>3.418615051776861</v>
+        <v>3.41861505177686</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>6.464560970791955</v>
+        <v>6.464560970791954</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>10.66676005863766</v>
+        <v>10.66676005863765</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>25.40879013827678</v>
+        <v>25.40879013827677</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>0.4360545370034425</v>
+        <v>0.4360545370034424</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>0.6368287134591702</v>
+        <v>0.6368287134591701</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>0.657938620373947</v>
+        <v>0.6579386203739469</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>6.373884791430134</v>
+        <v>6.373884791430133</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>1.894159152813688</v>
+        <v>1.894159152813687</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>8.309531080476722</v>
+        <v>8.30953108047672</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>0.2718544538884959</v>
+        <v>0.2718544538884958</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>0.5656417581683295</v>
+        <v>0.5656417581683294</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>4.862898437403837</v>
+        <v>4.862898437403836</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11631,7 +11631,7 @@
         <v>1411</v>
       </c>
       <c r="B1411">
-        <v>0.7207994274564189</v>
+        <v>0.7207994274564188</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>4.879662100815265</v>
+        <v>4.879662100815264</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>47.07424251393993</v>
+        <v>47.07424251393992</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>26.30649603680035</v>
+        <v>26.30649603680034</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>30.95093932198602</v>
+        <v>30.95093932198601</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>82.86231932903145</v>
+        <v>82.86231932903144</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>51.88412440044993</v>
+        <v>51.88412440044992</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>81.06872457242402</v>
+        <v>81.068724572424</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>25.32579242012789</v>
+        <v>25.32579242012788</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>51.05883635557958</v>
+        <v>51.05883635557957</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>7.637167503579863</v>
+        <v>7.637167503579862</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12799,7 +12799,7 @@
         <v>1557</v>
       </c>
       <c r="B1557">
-        <v>1.619841729916282</v>
+        <v>1.619841729916281</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>0.3640674977770562</v>
+        <v>0.3640674977770561</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>4.591983569265289</v>
+        <v>4.591983569265288</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13183,7 +13183,7 @@
         <v>1605</v>
       </c>
       <c r="B1605">
-        <v>31.68215156344608</v>
+        <v>31.68215156344607</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>48.16505291983746</v>
+        <v>48.16505291983745</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>62.02907147475106</v>
+        <v>62.02907147475105</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>71.09463791366245</v>
+        <v>71.09463791366244</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>26.34336437346395</v>
+        <v>26.34336437346394</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>41.28608950037836</v>
+        <v>41.28608950037835</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>58.54885289064758</v>
+        <v>58.54885289064757</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>63.98063152119696</v>
+        <v>63.98063152119695</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>59.94797402921685</v>
+        <v>59.94797402921684</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13719,7 +13719,7 @@
         <v>1672</v>
       </c>
       <c r="B1672">
-        <v>4.41403083459012</v>
+        <v>4.414030834590119</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>3.590178837809213</v>
+        <v>3.590178837809212</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>57.35400226602528</v>
+        <v>57.35400226602527</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>8.022790376250462</v>
+        <v>8.022790376250461</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>9.272562513517904</v>
+        <v>9.272562513517901</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>27.99007192549432</v>
+        <v>27.99007192549431</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14199,7 +14199,7 @@
         <v>1732</v>
       </c>
       <c r="B1732">
-        <v>46.02709969280294</v>
+        <v>46.02709969280293</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>51.99109532956132</v>
+        <v>51.99109532956131</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>54.16216558396457</v>
+        <v>54.16216558396456</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>6.554035558895263</v>
+        <v>6.554035558895262</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>7.197707481107176</v>
+        <v>7.197707481107175</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>34.1627048346757</v>
+        <v>34.16270483467569</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>7.747831127778388</v>
+        <v>7.747831127778387</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>41.31656888839914</v>
+        <v>41.31656888839913</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>12.03519665945908</v>
+        <v>12.03519665945907</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>8.469489253378084</v>
+        <v>8.469489253378082</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14791,7 +14791,7 @@
         <v>1806</v>
       </c>
       <c r="B1806">
-        <v>62.16183265526465</v>
+        <v>62.16183265526464</v>
       </c>
     </row>
     <row r="1807" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>39.43153596772937</v>
+        <v>39.43153596772936</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>25.28479178181917</v>
+        <v>25.28479178181916</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>7.966022516061759</v>
+        <v>7.966022516061758</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>4.750564308284943</v>
+        <v>4.750564308284942</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>0.5152745694639908</v>
+        <v>0.5152745694639906</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15111,7 +15111,7 @@
         <v>1846</v>
       </c>
       <c r="B1846">
-        <v>6.95264147857856</v>
+        <v>6.952641478578559</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>53.0845433748068</v>
+        <v>53.08454337480679</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>3.874106060064324</v>
+        <v>3.874106060064323</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>0.3156756078732949</v>
+        <v>0.3156756078732948</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>9.678993429933456</v>
+        <v>9.678993429933454</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>23.2967736981638</v>
+        <v>23.29677369816379</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>2.88812716469596</v>
+        <v>2.888127164695959</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>4.528357846771911</v>
+        <v>4.52835784677191</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>1.208112089121731</v>
+        <v>1.20811208912173</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>0.2499740632130785</v>
+        <v>0.2499740632130784</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>26.09920689115518</v>
+        <v>26.09920689115517</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>21.24331285157535</v>
+        <v>21.24331285157534</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>18.47261925207099</v>
+        <v>18.47261925207098</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>25.94962343302243</v>
+        <v>25.94962343302242</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>39.1560491913877</v>
+        <v>39.15604919138769</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>50.27428518508316</v>
+        <v>50.27428518508315</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>32.8813982536483</v>
+        <v>32.88139825364829</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>8.260324453085483</v>
+        <v>8.260324453085481</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>9.835083065124488</v>
+        <v>9.835083065124486</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>46.95701409847539</v>
+        <v>46.95701409847538</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>24.83132296369847</v>
+        <v>24.83132296369846</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>38.78443511436512</v>
+        <v>38.78443511436511</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>24.18269814093318</v>
+        <v>24.18269814093317</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17031,7 +17031,7 @@
         <v>2086</v>
       </c>
       <c r="B2086">
-        <v>4.693327534434382</v>
+        <v>4.693327534434381</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17103,7 +17103,7 @@
         <v>2095</v>
       </c>
       <c r="B2095">
-        <v>26.8070027566262</v>
+        <v>26.80700275662619</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>12.99822809250026</v>
+        <v>12.99822809250025</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>33.72192599252904</v>
+        <v>33.72192599252903</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>34.02261687819558</v>
+        <v>34.02261687819557</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>11.42651741926333</v>
+        <v>11.42651741926332</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>0.889743158403138</v>
+        <v>0.8897431584031379</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>22.98931287150418</v>
+        <v>22.98931287150417</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>6.816187602977837</v>
+        <v>6.816187602977836</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>6.914864621695112</v>
+        <v>6.914864621695111</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>0.6153143685110409</v>
+        <v>0.6153143685110408</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>5.122881755800316</v>
+        <v>5.122881755800315</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>6.126093228241967</v>
+        <v>6.126093228241966</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>1.13308297251404</v>
+        <v>1.133082972514039</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>31.16370889605416</v>
+        <v>31.16370889605415</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>6.432879991512664</v>
+        <v>6.432879991512663</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>0.2001525727827271</v>
+        <v>0.200152572782727</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>0.1494298889084921</v>
+        <v>0.149429888908492</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>0.5963233652057858</v>
+        <v>0.5963233652057857</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>0.1085845782502604</v>
+        <v>0.1085845782502603</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>7.042878051382387</v>
+        <v>7.042878051382386</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19135,7 +19135,7 @@
         <v>2349</v>
       </c>
       <c r="B2349">
-        <v>2.027793685022488</v>
+        <v>2.027793685022487</v>
       </c>
     </row>
     <row r="2350" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>2.956178259873124</v>
+        <v>2.956178259873123</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>35.0240406173014</v>
+        <v>35.02404061730139</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>6.961404302634533</v>
+        <v>6.961404302634532</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>45.28094082837116</v>
+        <v>45.28094082837115</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>1.242237280863458</v>
+        <v>1.242237280863457</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>0.5936505573331943</v>
+        <v>0.5936505573331942</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>0.7230033216671522</v>
+        <v>0.7230033216671521</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>2.169009965001457</v>
+        <v>2.169009965001456</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>0.4621232058923691</v>
+        <v>0.462123205892369</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>3.867013740928719</v>
+        <v>3.867013740928718</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>3.926155476530579</v>
+        <v>3.926155476530578</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>4.726679018634044</v>
+        <v>4.726679018634043</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>0.5885042298943011</v>
+        <v>0.588504229894301</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>8.252704606080288</v>
+        <v>8.252704606080286</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>0.3362491947873213</v>
+        <v>0.3362491947873212</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>9.743703515269882</v>
+        <v>9.74370351526988</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>2.880211315941717</v>
+        <v>2.880211315941716</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>7.075584779296994</v>
+        <v>7.075584779296993</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20719,7 +20719,7 @@
         <v>2547</v>
       </c>
       <c r="B2547">
-        <v>8.402405292628503</v>
+        <v>8.402405292628501</v>
       </c>
     </row>
     <row r="2548" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>1.93295296620129</v>
+        <v>1.932952966201289</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>7.795982699430446</v>
+        <v>7.795982699430445</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>5.247173183296592</v>
+        <v>5.247173183296591</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>32.6850406577452</v>
+        <v>32.68504065774519</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>23.07362940932705</v>
+        <v>23.07362940932704</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>8.147726560031794</v>
+        <v>8.147726560031792</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>0.6539762999312456</v>
+        <v>0.6539762999312455</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>3.452581985157711</v>
+        <v>3.45258198515771</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>0.7873412067844774</v>
+        <v>0.7873412067844773</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>0.3396927794915921</v>
+        <v>0.339692779491592</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>0.2084798932752506</v>
+        <v>0.2084798932752505</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>20.09377100953009</v>
+        <v>20.09377100953008</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21327,7 +21327,7 @@
         <v>2623</v>
       </c>
       <c r="B2623">
-        <v>17.05090233642094</v>
+        <v>17.05090233642093</v>
       </c>
     </row>
     <row r="2624" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>9.930975908974482</v>
+        <v>9.93097590897448</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21583,7 +21583,7 @@
         <v>2655</v>
       </c>
       <c r="B2655">
-        <v>1.671721165180113</v>
+        <v>1.671721165180112</v>
       </c>
     </row>
     <row r="2656" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>5.560436816521705</v>
+        <v>5.560436816521704</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>5.666264768582316</v>
+        <v>5.666264768582315</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>6.025013027007669</v>
+        <v>6.025013027007668</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22095,7 +22095,7 @@
         <v>2719</v>
       </c>
       <c r="B2719">
-        <v>32.79230465789525</v>
+        <v>32.79230465789524</v>
       </c>
     </row>
     <row r="2720" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>13.69043257871449</v>
+        <v>13.69043257871448</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>0.3225129552052641</v>
+        <v>0.322512955205264</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>12.52488905795832</v>
+        <v>12.52488905795831</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>5.048383097772602</v>
+        <v>5.048383097772601</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>0.9122539448827161</v>
+        <v>0.9122539448827158</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>0.3706645268573231</v>
+        <v>0.370664526857323</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>1.412851516730547</v>
+        <v>1.412851516730546</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>11.27482384965222</v>
+        <v>11.27482384965221</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>2.780866095256294</v>
+        <v>2.780866095256293</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22895,7 +22895,7 @@
         <v>2819</v>
       </c>
       <c r="B2819">
-        <v>0.4861286546691199</v>
+        <v>0.4861286546691198</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>0.3685925146139874</v>
+        <v>0.3685925146139873</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>3.8680687966679</v>
+        <v>3.868068796667899</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>21.44567840377101</v>
+        <v>21.445678403771</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>0.133977425324034</v>
+        <v>0.1339774253240339</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>18.19475860031617</v>
+        <v>18.19475860031616</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>1.181334188319244</v>
+        <v>1.181334188319243</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>7.674358218385988</v>
+        <v>7.674358218385987</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>0.3018924769250518</v>
+        <v>0.3018924769250517</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>2.132648641234744</v>
+        <v>2.132648641234743</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>5.557594027446689</v>
+        <v>5.557594027446688</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>0.8608932453573152</v>
+        <v>0.860893245357315</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>4.182123721697398</v>
+        <v>4.182123721697397</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>0.4777497536737921</v>
+        <v>0.477749753673792</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>0.6578800061662148</v>
+        <v>0.6578800061662147</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>0.0375001978229511</v>
+        <v>0.037500197822951</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>0.8836121122743428</v>
+        <v>0.8836121122743427</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>5.818427251855287</v>
+        <v>5.818427251855286</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>1.548147761728557</v>
+        <v>1.548147761728556</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>0.2435279657177222</v>
+        <v>0.2435279657177221</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>8.344435841181289</v>
+        <v>8.344435841181287</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>4.774508212143575</v>
+        <v>4.774508212143574</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>0.7153717518204108</v>
+        <v>0.7153717518204107</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>3.469374955673006</v>
+        <v>3.469374955673005</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>0.7539252469563108</v>
+        <v>0.7539252469563107</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>0.5803861621233818</v>
+        <v>0.5803861621233817</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>15.4486536609555</v>
+        <v>15.44865366095549</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26855,7 +26855,7 @@
         <v>3314</v>
       </c>
       <c r="B3314">
-        <v>22.29863235469099</v>
+        <v>22.29863235469098</v>
       </c>
     </row>
     <row r="3315" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>0.6549551572003746</v>
+        <v>0.6549551572003744</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>3.26706801768508</v>
+        <v>3.267068017685079</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>0.0331035461009536</v>
+        <v>0.0331035461009535</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>0.4420419783232937</v>
+        <v>0.4420419783232936</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -29743,7 +29743,7 @@
         <v>3675</v>
       </c>
       <c r="B3675">
-        <v>4.286984539330427</v>
+        <v>4.286984539330426</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>7.223292582782312</v>
+        <v>7.223292582782311</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>0.5793047299907215</v>
+        <v>0.5793047299907214</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>8.114521611351464</v>
+        <v>8.114521611351462</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>0.0846693953534173</v>
+        <v>0.08466939535341721</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30887,7 +30887,7 @@
         <v>3818</v>
       </c>
       <c r="B3818">
-        <v>0.9546378784939198</v>
+        <v>0.9546378784939196</v>
       </c>
     </row>
     <row r="3819" spans="1:2">
@@ -31063,7 +31063,7 @@
         <v>3840</v>
       </c>
       <c r="B3840">
-        <v>0.1377328376134405</v>
+        <v>0.1377328376134404</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>0.1420779088326336</v>
+        <v>0.1420779088326335</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>0.2252391606210996</v>
+        <v>0.2252391606210995</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42023,7 +42023,7 @@
         <v>5210</v>
       </c>
       <c r="B5210">
-        <v>0.6031138211715691</v>
+        <v>0.603113821171569</v>
       </c>
     </row>
     <row r="5211" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>2.40622166369395</v>
+        <v>2.406221663693949</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>1.886961328104165</v>
+        <v>1.886961328104164</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42415,7 +42415,7 @@
         <v>5259</v>
       </c>
       <c r="B5259">
-        <v>0.7875404950907671</v>
+        <v>0.787540495090767</v>
       </c>
     </row>
     <row r="5260" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>0.7038511292906333</v>
+        <v>0.7038511292906332</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>3.827331922293973</v>
+        <v>3.827331922293972</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45687,7 +45687,7 @@
         <v>5668</v>
       </c>
       <c r="B5668">
-        <v>0.7901165895206003</v>
+        <v>0.7901165895206002</v>
       </c>
     </row>
     <row r="5669" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>3.152828926814887</v>
+        <v>3.152828926814886</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>2.544917532740432</v>
+        <v>2.544917532740431</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>0.5155060955845332</v>
+        <v>0.5155060955845331</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47967,7 +47967,7 @@
         <v>5953</v>
       </c>
       <c r="B5953">
-        <v>0.5644196519371117</v>
+        <v>0.5644196519371116</v>
       </c>
     </row>
     <row r="5954" spans="1:2">
@@ -48167,7 +48167,7 @@
         <v>5978</v>
       </c>
       <c r="B5978">
-        <v>0.4985841738122271</v>
+        <v>0.498584173812227</v>
       </c>
     </row>
     <row r="5979" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>0.8386432921021459</v>
+        <v>0.8386432921021458</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>0.8235823714253393</v>
+        <v>0.8235823714253392</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>0.3339251414507369</v>
+        <v>0.3339251414507368</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>0.5266574486055974</v>
+        <v>0.5266574486055973</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>0.8574056999972453</v>
+        <v>0.8574056999972451</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>0.7575388128630052</v>
+        <v>0.7575388128630051</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>6.004644589820706</v>
+        <v>6.004644589820705</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51463,7 +51463,7 @@
         <v>6390</v>
       </c>
       <c r="B6390">
-        <v>6.448852363119707</v>
+        <v>6.448852363119706</v>
       </c>
     </row>
     <row r="6391" spans="1:2">
@@ -51487,7 +51487,7 @@
         <v>6393</v>
       </c>
       <c r="B6393">
-        <v>0.5357690271975786</v>
+        <v>0.5357690271975785</v>
       </c>
     </row>
     <row r="6394" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>0.327987522207458</v>
+        <v>0.3279875222074579</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>1.275697201347424</v>
+        <v>1.275697201347423</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>8.124046420107957</v>
+        <v>8.124046420107955</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>8.713382971752056</v>
+        <v>8.713382971752054</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>1.477107341957047</v>
+        <v>1.477107341957046</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>6.717598505572161</v>
+        <v>6.71759850557216</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>0.06682723051971461</v>
+        <v>0.0668272305197145</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>0.8751159828635503</v>
+        <v>0.8751159828635502</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>0.333916349319577</v>
+        <v>0.3339163493195769</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>9.951520188784642</v>
+        <v>9.95152018878464</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>0.9941262702431494</v>
+        <v>0.9941262702431491</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53383,7 +53383,7 @@
         <v>6630</v>
       </c>
       <c r="B6630">
-        <v>1.790195132558962</v>
+        <v>1.790195132558961</v>
       </c>
     </row>
     <row r="6631" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>2.107781563604329</v>
+        <v>2.107781563604328</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>5.404933323407995</v>
+        <v>5.404933323407994</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>0.3169680511537914</v>
+        <v>0.3169680511537913</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>2.487862462933841</v>
+        <v>2.48786246293384</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>3.579393823586475</v>
+        <v>3.579393823586474</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>0.3986557417598682</v>
+        <v>0.3986557417598681</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54287,7 +54287,7 @@
         <v>6743</v>
       </c>
       <c r="B6743">
-        <v>23.86621072628279</v>
+        <v>23.86621072628278</v>
       </c>
     </row>
     <row r="6744" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>54.03204204279893</v>
+        <v>54.03204204279892</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>63.41002220892332</v>
+        <v>63.41002220892331</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>55.77728007802724</v>
+        <v>55.77728007802723</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54367,7 +54367,7 @@
         <v>6753</v>
       </c>
       <c r="B6753">
-        <v>9.794316883646696</v>
+        <v>9.794316883646694</v>
       </c>
     </row>
     <row r="6754" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>5.024878800471962</v>
+        <v>5.024878800471961</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>1.324311825240568</v>
+        <v>1.324311825240567</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>0.6333147917056208</v>
+        <v>0.6333147917056207</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>0.254002910781556</v>
+        <v>0.2540029107815559</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>0.8650812304997859</v>
+        <v>0.8650812304997858</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -55079,7 +55079,7 @@
         <v>6842</v>
       </c>
       <c r="B6842">
-        <v>0.9521086754302724</v>
+        <v>0.9521086754302722</v>
       </c>
     </row>
     <row r="6843" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>3.71362035929337</v>
+        <v>3.713620359293369</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>0.3968533548721009</v>
+        <v>0.3968533548721008</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55871,7 +55871,7 @@
         <v>6941</v>
       </c>
       <c r="B6941">
-        <v>30.6197690482987</v>
+        <v>30.61976904829869</v>
       </c>
     </row>
     <row r="6942" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>3.454399025597411</v>
+        <v>3.45439902559741</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>47.29111508254933</v>
+        <v>47.29111508254932</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>39.41864084202827</v>
+        <v>39.41864084202826</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56367,7 +56367,7 @@
         <v>7003</v>
       </c>
       <c r="B7003">
-        <v>0.9808091222463778</v>
+        <v>0.9808091222463776</v>
       </c>
     </row>
     <row r="7004" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>8.485930538646986</v>
+        <v>8.485930538646985</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>3.353289517259247</v>
+        <v>3.353289517259246</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>0.5952536559146718</v>
+        <v>0.5952536559146717</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57055,7 +57055,7 @@
         <v>7089</v>
       </c>
       <c r="B7089">
-        <v>0.3047440581312267</v>
+        <v>0.3047440581312266</v>
       </c>
     </row>
     <row r="7090" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>4.596408941949076</v>
+        <v>4.596408941949075</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>6.621969425656963</v>
+        <v>6.621969425656962</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>23.33953276270449</v>
+        <v>23.33953276270448</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>40.75387249416936</v>
+        <v>40.75387249416935</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>7.301894235351284</v>
+        <v>7.301894235351283</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>6.633018203814496</v>
+        <v>6.633018203814495</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>14.97932969964322</v>
+        <v>14.97932969964321</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>4.756279193538839</v>
+        <v>4.756279193538838</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>0.2611881334364162</v>
+        <v>0.2611881334364161</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>32.68005845008796</v>
+        <v>32.68005845008795</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>0.9141676987651746</v>
+        <v>0.9141676987651745</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>43.50756797343136</v>
+        <v>43.50756797343135</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>7.116145811047724</v>
+        <v>7.116145811047723</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>1.326260747647666</v>
+        <v>1.326260747647665</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>0.6267265547565137</v>
+        <v>0.6267265547565136</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>0.1121360130967586</v>
+        <v>0.1121360130967585</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>24.03645569264117</v>
+        <v>24.03645569264116</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>0.647437885058711</v>
+        <v>0.6474378850587109</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>5.068458463920904</v>
+        <v>5.068458463920903</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59631,7 +59631,7 @@
         <v>7411</v>
       </c>
       <c r="B7411">
-        <v>5.250309043410269</v>
+        <v>5.250309043410268</v>
       </c>
     </row>
     <row r="7412" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>4.675479508179906</v>
+        <v>4.675479508179905</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>6.788785460863001</v>
+        <v>6.788785460863</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>3.538041500031359</v>
+        <v>3.538041500031358</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>4.44966827289134</v>
+        <v>4.449668272891339</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>0.7773621379180585</v>
+        <v>0.7773621379180584</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>0.7046482825157923</v>
+        <v>0.7046482825157921</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>7.300282344638647</v>
+        <v>7.300282344638646</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>12.97668737115865</v>
+        <v>12.97668737115864</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>6.743095685935698</v>
+        <v>6.743095685935697</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>2.423342873772546</v>
+        <v>2.423342873772545</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>6.780315707845689</v>
+        <v>6.780315707845688</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60487,7 +60487,7 @@
         <v>7518</v>
       </c>
       <c r="B7518">
-        <v>15.44349561067506</v>
+        <v>15.44349561067505</v>
       </c>
     </row>
     <row r="7519" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>16.00235277429838</v>
+        <v>16.00235277429837</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>5.746654154487124</v>
+        <v>5.746654154487123</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>35.99703646565706</v>
+        <v>35.99703646565705</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>5.637250735754843</v>
+        <v>5.637250735754842</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -60935,7 +60935,7 @@
         <v>7574</v>
       </c>
       <c r="B7574">
-        <v>0.858575053441504</v>
+        <v>0.8585750534415039</v>
       </c>
     </row>
     <row r="7575" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>10.58244352081479</v>
+        <v>10.58244352081478</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>32.28030955335388</v>
+        <v>32.28030955335387</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>34.61374116317551</v>
+        <v>34.6137411631755</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>43.14591831172326</v>
+        <v>43.14591831172325</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>4.385661558047702</v>
+        <v>4.385661558047701</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>15.84775780140452</v>
+        <v>15.84775780140451</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>4.577330017332222</v>
+        <v>4.577330017332221</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>19.43087362718199</v>
+        <v>19.43087362718198</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>6.996895205416423</v>
+        <v>6.996895205416422</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>73.6326331084697</v>
+        <v>73.63263310846969</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>9.116472878326871</v>
+        <v>9.116472878326867</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>7.194454392578035</v>
+        <v>7.194454392578034</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>16.20759042267292</v>
+        <v>16.20759042267291</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>1.030549138927982</v>
+        <v>1.030549138927981</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>70.43288350836514</v>
+        <v>70.43288350836512</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>56.29718810061247</v>
+        <v>56.29718810061246</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>48.72540474575795</v>
+        <v>48.72540474575794</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>89.1252474252244</v>
+        <v>89.12524742522439</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>55.02789743217018</v>
+        <v>55.02789743217017</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>47.73423849300528</v>
+        <v>47.73423849300527</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>48.81948054916824</v>
+        <v>48.81948054916823</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>79.20420662446054</v>
+        <v>79.20420662446053</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>43.31912329557211</v>
+        <v>43.3191232955721</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62815,7 +62815,7 @@
         <v>7809</v>
       </c>
       <c r="B7809">
-        <v>50.4574545842465</v>
+        <v>50.45745458424649</v>
       </c>
     </row>
     <row r="7810" spans="1:2">
@@ -62919,7 +62919,7 @@
         <v>7822</v>
       </c>
       <c r="B7822">
-        <v>54.70698464483601</v>
+        <v>54.706984644836</v>
       </c>
     </row>
     <row r="7823" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>34.12460559964973</v>
+        <v>34.12460559964972</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63127,7 +63127,7 @@
         <v>7848</v>
       </c>
       <c r="B7848">
-        <v>68.58038147298677</v>
+        <v>68.58038147298676</v>
       </c>
     </row>
     <row r="7849" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>32.25979458064759</v>
+        <v>32.25979458064758</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>31.20327348627344</v>
+        <v>31.20327348627343</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>67.20734365685837</v>
+        <v>67.20734365685836</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63399,7 +63399,7 @@
         <v>7882</v>
       </c>
       <c r="B7882">
-        <v>49.47683888888564</v>
+        <v>49.47683888888563</v>
       </c>
     </row>
     <row r="7883" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>48.99766774067434</v>
+        <v>48.99766774067433</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>31.8055344707225</v>
+        <v>31.80553447072249</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63535,7 +63535,7 @@
         <v>7899</v>
       </c>
       <c r="B7899">
-        <v>32.70057342279425</v>
+        <v>32.70057342279424</v>
       </c>
     </row>
     <row r="7900" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>6.604941998310739</v>
+        <v>6.604941998310738</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>33.84179204734153</v>
+        <v>33.84179204734152</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>39.65837295165325</v>
+        <v>39.65837295165324</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>1.960791784163731</v>
+        <v>1.96079178416373</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>4.775123661324764</v>
+        <v>4.775123661324763</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>45.17367682822111</v>
+        <v>45.1736768282211</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>58.35278836578314</v>
+        <v>58.35278836578313</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>63.18816743265668</v>
+        <v>63.18816743265667</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>4.890798800284396</v>
+        <v>4.890798800284395</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>3.787034654478038</v>
+        <v>3.787034654478037</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>13.32863638148706</v>
+        <v>13.32863638148705</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>30.48085337597322</v>
+        <v>30.48085337597321</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>46.66687377020066</v>
+        <v>46.66687377020065</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>7.01518283822889</v>
+        <v>7.015182838228889</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>6.104962806354484</v>
+        <v>6.104962806354483</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>6.276057678724977</v>
+        <v>6.276057678724976</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>2.885026473106923</v>
+        <v>2.885026473106922</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>18.56013026421527</v>
+        <v>18.56013026421526</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>32.15546129088415</v>
+        <v>32.15546129088414</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>6.60160098847</v>
+        <v>6.601600988469999</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>62.10058080818443</v>
+        <v>62.10058080818442</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>23.82749604207563</v>
+        <v>23.82749604207562</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>15.87155516974382</v>
+        <v>15.87155516974381</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>6.422241512809256</v>
+        <v>6.422241512809255</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>31.69592590226316</v>
+        <v>31.69592590226315</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>14.97660413898367</v>
+        <v>14.97660413898366</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>11.08755145594762</v>
+        <v>11.08755145594761</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>36.34872171205068</v>
+        <v>36.34872171205067</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>44.74579311177554</v>
+        <v>44.74579311177553</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>46.56254048043722</v>
+        <v>46.56254048043721</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>50.98498245383692</v>
+        <v>50.98498245383691</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>42.03781671454471</v>
+        <v>42.0378167145447</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>30.03362697097601</v>
+        <v>30.033626970976</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>23.21468450023476</v>
+        <v>23.21468450023475</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>28.17505836509736</v>
+        <v>28.17505836509735</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>73.53591966571146</v>
+        <v>73.53591966571145</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>21.38228713810856</v>
+        <v>21.38228713810855</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>24.40308756200651</v>
+        <v>24.4030875620065</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>56.89534609052027</v>
+        <v>56.89534609052026</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>71.02371472230641</v>
+        <v>71.02371472230639</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>33.32979694280016</v>
+        <v>33.32979694280015</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>7.745340023949766</v>
+        <v>7.745340023949765</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>27.61247919928304</v>
+        <v>27.61247919928303</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68191,7 +68191,7 @@
         <v>8481</v>
       </c>
       <c r="B8481">
-        <v>13.74980877114728</v>
+        <v>13.74980877114727</v>
       </c>
     </row>
     <row r="8482" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>2.868051798547658</v>
+        <v>2.868051798547657</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>6.436484765288198</v>
+        <v>6.436484765288197</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>4.881361912839502</v>
+        <v>4.881361912839501</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>27.14925111557492</v>
+        <v>27.14925111557491</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>4.280888661726271</v>
+        <v>4.28088866172627</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>7.833964706040956</v>
+        <v>7.833964706040955</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>6.5079647916177</v>
+        <v>6.507964791617699</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>7.921387796873637</v>
+        <v>7.921387796873636</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>85.16322005356167</v>
+        <v>85.16322005356166</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>76.89070384526788</v>
+        <v>76.89070384526786</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>72.17812154359345</v>
+        <v>72.17812154359343</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>72.14178073479944</v>
+        <v>72.14178073479943</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>41.489773872248</v>
+        <v>41.48977387224799</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>93.91461433902811</v>
+        <v>93.91461433902808</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>92.12101958242069</v>
+        <v>92.12101958242066</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>66.23698544785066</v>
+        <v>66.23698544785064</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69431,7 +69431,7 @@
         <v>8636</v>
       </c>
       <c r="B8636">
-        <v>58.709455819834</v>
+        <v>58.70945581983399</v>
       </c>
     </row>
     <row r="8637" spans="1:2">
@@ -69471,7 +69471,7 @@
         <v>8641</v>
       </c>
       <c r="B8641">
-        <v>72.18017304086408</v>
+        <v>72.18017304086406</v>
       </c>
     </row>
     <row r="8642" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>41.56890305268656</v>
+        <v>41.56890305268655</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>52.24342949384874</v>
+        <v>52.24342949384873</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>48.27407534621948</v>
+        <v>48.27407534621947</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>48.65125777297663</v>
+        <v>48.65125777297662</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>57.75140659445006</v>
+        <v>57.75140659445005</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>30.66285049098192</v>
+        <v>30.66285049098191</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>29.83111488326102</v>
+        <v>29.83111488326101</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>39.85678204482698</v>
+        <v>39.85678204482697</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>65.88471405937972</v>
+        <v>65.8847140593797</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>54.8321259783444</v>
+        <v>54.83212597834439</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>32.91187764166908</v>
+        <v>32.91187764166907</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70063,7 +70063,7 @@
         <v>8715</v>
       </c>
       <c r="B8715">
-        <v>54.95199203315689</v>
+        <v>54.95199203315688</v>
       </c>
     </row>
     <row r="8716" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>74.95731420321898</v>
+        <v>74.95731420321897</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>78.42727530096931</v>
+        <v>78.4272753009693</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>84.78838219511381</v>
+        <v>84.7883821951138</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
